--- a/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
   <si>
     <t>KVSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,44 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
+      <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44286</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -709,8 +713,23 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +757,23 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +801,23 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +845,23 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +873,13 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +907,23 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +951,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +995,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +1039,23 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,37 +1064,57 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,28 +1122,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1170,13 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,36 +1184,51 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-1900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1064,8 +1248,23 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,37 +1292,67 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,8 +1380,23 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,66 +1424,111 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1556,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1600,23 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1644,23 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1688,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,57 +1712,87 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,59 +1820,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
+      <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44286</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
@@ -1504,8 +1913,23 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1941,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,37 +1959,57 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,8 +2037,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1599,14 +2063,14 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1614,11 +2078,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,8 +2125,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1660,11 +2154,11 @@
       <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1672,40 +2166,70 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1718,11 +2242,11 @@
       <c r="F47" s="3">
         <v>345000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>345000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>345000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1730,11 +2254,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>345000</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +2301,23 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +2345,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2389,23 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,37 +2433,67 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,37 +2521,67 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>345700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>346000</v>
+      </c>
+      <c r="F54" s="3">
         <v>346700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>347000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>347900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>347900</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2593,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,37 +2611,57 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,66 +2689,111 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,37 +2821,67 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F62" s="3">
         <v>12600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>14400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>15200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2909,23 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2953,23 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,37 +2997,67 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15200</v>
+        <v>16400</v>
       </c>
       <c r="E66" s="3">
         <v>16400</v>
       </c>
       <c r="F66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H66" s="3">
         <v>15900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +3069,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +3103,23 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +3147,23 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +3191,23 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,37 +3235,67 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +3323,23 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +3367,23 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,37 +3411,67 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>329600</v>
+      </c>
+      <c r="F76" s="3">
         <v>331500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>330600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>331900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>331900</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,30 +3499,45 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
+      <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44286</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
@@ -2589,37 +3548,67 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +3620,13 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +3654,23 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3698,23 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3742,23 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3786,23 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3830,23 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,37 +3874,67 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3946,13 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3980,23 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +4024,23 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,8 +4068,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2946,25 +4095,40 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-345000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +4140,13 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +4174,23 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +4218,23 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +4262,23 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,37 +4306,67 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>347300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>347300</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,8 +4394,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3159,24 +4418,39 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
   <si>
     <t>KVSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,49 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,29 +1218,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,11 +1265,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,31 +1394,34 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,29 +1782,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,34 +1958,37 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,38 +2050,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2069,20 +2162,20 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,13 +2236,16 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
@@ -2160,18 +2259,18 @@
       <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,13 +2330,16 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>345000</v>
+        <v>345500</v>
       </c>
       <c r="E47" s="3">
         <v>345000</v>
@@ -2248,18 +2353,18 @@
       <c r="H47" s="3">
         <v>345000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>345000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>345000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,8 +2377,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,38 +2565,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>346100</v>
+      </c>
+      <c r="E54" s="3">
         <v>345700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>346000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>346700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>347000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>347900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>347900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,38 +2746,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,8 +2979,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2845,29 +2991,29 @@
         <v>12100</v>
       </c>
       <c r="E62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F62" s="3">
         <v>12200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>15200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="E66" s="3">
         <v>16400</v>
       </c>
       <c r="F66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>15900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,38 +3421,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,38 +3609,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>329400</v>
       </c>
       <c r="E76" s="3">
+        <v>329300</v>
+      </c>
+      <c r="F76" s="3">
         <v>329600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>331500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>330600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>331900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>331900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,34 +3703,37 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-800</v>
       </c>
       <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4310,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,20 +4331,20 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-345000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-345000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,17 +4564,20 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4339,20 +4585,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>347300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>347300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
   <si>
     <t>KVSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,53 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1122,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,29 +1185,29 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,32 +1252,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1290,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,14 +1302,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,41 +1390,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,16 +1440,19 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1423,8 +1469,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1540,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1590,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,32 +1852,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1890,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1990,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,37 +2040,40 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,41 +2137,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2235,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2165,20 +2258,20 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,16 +2335,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
@@ -2262,18 +2361,18 @@
       <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>700</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,41 +2385,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,16 +2435,19 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>347100</v>
+      </c>
+      <c r="E47" s="3">
         <v>345500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>345000</v>
       </c>
       <c r="F47" s="3">
         <v>345000</v>
@@ -2356,18 +2461,18 @@
       <c r="I47" s="3">
         <v>345000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>345000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>345000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,8 +2485,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,29 +2700,29 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>347400</v>
+      </c>
+      <c r="E54" s="3">
         <v>346100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>345700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>346000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>346700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>347000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>347900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>347900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,41 +2877,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>100</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,41 +2975,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,41 +3025,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,41 +3125,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12100</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>12100</v>
       </c>
       <c r="F62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G62" s="3">
         <v>12200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>15200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,41 +3325,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>16400</v>
       </c>
       <c r="F66" s="3">
         <v>16400</v>
       </c>
       <c r="G66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="H66" s="3">
         <v>15200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>15900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,41 +3595,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,41 +3795,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>340900</v>
+      </c>
+      <c r="E76" s="3">
         <v>329400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>329300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>329600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>331500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>330600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>331900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>331900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,37 +3895,40 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3950,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,8 +4320,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4115,32 +4332,32 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-800</v>
       </c>
       <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>-800</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4540,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4334,20 +4564,20 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-345000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-345000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,20 +4810,23 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4588,20 +4834,20 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>347300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>347300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4910,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
   <si>
     <t>KVSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,64 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +738,17 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +797,17 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +856,17 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +915,17 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +944,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +997,17 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1056,17 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1115,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1174,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,37 +1200,40 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1164,8 +1244,8 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>200</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1173,8 +1253,17 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,28 +1271,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1214,8 +1303,8 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>-200</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1312,17 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1341,11 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,28 +1353,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M20" s="3">
         <v>-3100</v>
@@ -1284,8 +1385,8 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>-3100</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1293,32 +1394,41 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1453,17 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,37 +1512,46 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M23" s="3">
         <v>-3300</v>
@@ -1434,8 +1562,8 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>-3300</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1443,25 +1571,34 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1472,14 +1609,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1493,8 +1630,17 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,37 +1689,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M26" s="3">
         <v>-3300</v>
@@ -1584,8 +1739,8 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>-3300</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1593,37 +1748,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M27" s="3">
         <v>-3300</v>
@@ -1634,8 +1798,8 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>-3300</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1807,17 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1866,17 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1925,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1984,17 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +2043,17 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,28 +2061,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M32" s="3">
         <v>3100</v>
@@ -1884,8 +2093,8 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>3100</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1893,37 +2102,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M33" s="3">
         <v>-3300</v>
@@ -1934,8 +2152,8 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>-3300</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2161,17 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,37 +2220,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M35" s="3">
         <v>-3300</v>
@@ -2034,8 +2270,8 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>-3300</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2043,46 +2279,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2343,17 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2372,11 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,37 +2395,40 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M41" s="3">
         <v>1500</v>
@@ -2179,8 +2439,8 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>1500</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2448,17 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,28 +2507,37 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2279,8 +2557,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2566,17 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,25 +2625,34 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -2364,11 +2660,11 @@
       <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
@@ -2379,8 +2675,8 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>700</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2388,37 +2684,46 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M46" s="3">
         <v>2200</v>
@@ -2429,8 +2734,8 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>2200</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2438,25 +2743,34 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>353800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>350100</v>
+      </c>
+      <c r="G47" s="3">
         <v>347100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>345500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>345000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>345000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>345000</v>
       </c>
       <c r="I47" s="3">
         <v>345000</v>
@@ -2464,11 +2778,11 @@
       <c r="J47" s="3">
         <v>345000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>345000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>345000</v>
       </c>
       <c r="M47" s="3">
         <v>345000</v>
@@ -2479,8 +2793,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>345000</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2488,8 +2802,17 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2538,8 +2861,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2920,17 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2979,17 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,37 +3038,46 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
@@ -2729,8 +3088,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>600</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +3097,17 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,37 +3156,46 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>354000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>350200</v>
+      </c>
+      <c r="G54" s="3">
         <v>347400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>346100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>345700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>346000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>346700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>347000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>347900</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M54" s="3">
         <v>347900</v>
@@ -2829,8 +3206,8 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
+      <c r="P54" s="3">
+        <v>347900</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
@@ -2838,8 +3215,17 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3244,11 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,37 +3267,40 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2919,8 +3311,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -2928,8 +3320,17 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,37 +3379,46 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -3019,8 +3429,8 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>600</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3028,37 +3438,46 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>700</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
@@ -3069,8 +3488,8 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>700</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
@@ -3078,8 +3497,17 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,8 +3556,17 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3137,28 +3574,28 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H62" s="3">
         <v>12100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>12100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>12200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>12600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>14400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>15200</v>
@@ -3169,8 +3606,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>15200</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3615,17 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3674,17 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3733,17 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,37 +3792,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>16800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>16400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>15200</v>
       </c>
       <c r="I66" s="3">
         <v>16400</v>
       </c>
       <c r="J66" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L66" s="3">
+        <v>16400</v>
       </c>
       <c r="M66" s="3">
         <v>15900</v>
@@ -3369,8 +3842,8 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
+      <c r="P66" s="3">
+        <v>15900</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
@@ -3378,8 +3851,17 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3880,11 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3933,17 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3992,17 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +4051,17 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,37 +4110,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M72" s="3">
         <v>-13100</v>
@@ -3639,8 +4160,8 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>-13100</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +4169,17 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4228,17 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4287,17 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,37 +4346,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>344500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>342300</v>
+      </c>
+      <c r="G76" s="3">
         <v>340900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>329400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>329300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>329600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>331500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>330600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>331900</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M76" s="3">
         <v>331900</v>
@@ -3839,8 +4396,8 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>331900</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4405,17 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,46 +4464,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,37 +4528,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M81" s="3">
         <v>-3300</v>
@@ -3994,8 +4578,8 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>-3300</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4587,17 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4616,11 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,8 +4669,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4728,17 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4787,17 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4846,17 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4905,17 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,37 +4964,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>-800</v>
@@ -4364,8 +5014,8 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>-800</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +5023,17 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +5052,11 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,8 +5105,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +5164,17 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,19 +5223,28 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>343900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-5100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4567,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-345000</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-345000</v>
@@ -4584,8 +5273,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>-345000</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +5282,17 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5311,11 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5364,17 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5423,17 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5482,17 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,37 +5541,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-342700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>700</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>347300</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>347300</v>
@@ -4854,8 +5591,8 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>347300</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5600,17 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,37 +5659,46 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="M102" s="3">
         <v>1500</v>
@@ -4954,13 +5709,22 @@
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>1500</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KVSA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="92">
   <si>
     <t>KVSA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,68 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,8 +748,11 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,8 +810,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,8 +872,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,53 +1229,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1289,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1271,44 +1301,44 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,44 +1387,44 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,8 +1437,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,24 +1451,24 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,53 +1561,56 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,28 +1623,31 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1664,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,53 +1747,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>2100</v>
       </c>
       <c r="F26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,53 +1809,56 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>2100</v>
       </c>
       <c r="F27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2061,44 +2131,44 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,53 +2181,56 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>2100</v>
       </c>
       <c r="F33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,53 +2305,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>2100</v>
       </c>
       <c r="F35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,49 +2367,52 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,17 +2484,18 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2416,35 +2503,35 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,8 +2606,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2542,26 +2635,26 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,28 +2730,31 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -2669,18 +2768,18 @@
       <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>700</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,53 +2792,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,28 +2854,31 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3">
         <v>9900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>353800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>350100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>347100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>345500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>345000</v>
       </c>
       <c r="J47" s="3">
         <v>345000</v>
@@ -2787,18 +2892,18 @@
       <c r="M47" s="3">
         <v>345000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>345000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>345000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2811,8 +2916,11 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2870,8 +2978,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,8 +3164,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,8 +3178,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3071,29 +3191,29 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,53 +3288,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E54" s="3">
         <v>12600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>350200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>347400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>346100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>345700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>346000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>347000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>347900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3">
         <v>347900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,8 +3400,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3279,44 +3410,44 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3460,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3388,53 +3522,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,53 +3584,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3646,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3565,8 +3708,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3583,35 +3729,35 @@
         <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>12100</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>12100</v>
       </c>
       <c r="J62" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K62" s="3">
         <v>12200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
         <v>15200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,53 +3956,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>16400</v>
       </c>
       <c r="J66" s="3">
         <v>16400</v>
       </c>
       <c r="K66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3">
         <v>15900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,53 +4290,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,53 +4538,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>344500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>342300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>340900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>329600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>331500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>330600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>331900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3">
         <v>331900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,49 +4662,52 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,53 +4729,56 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>2100</v>
       </c>
       <c r="F81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4678,8 +4877,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,53 +5187,56 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-800</v>
       </c>
       <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>-800</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5032,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5114,8 +5335,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,23 +5459,26 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>343900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5265,20 +5495,20 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-345000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-345000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5291,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,32 +5793,35 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-342700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5583,20 +5829,20 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>347300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
         <v>347300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5609,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,53 +5917,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
